--- a/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_Data.xlsx
+++ b/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New\git\Trip-Advisor-Automation\Trip Advisor Automation\src\com\cognizant\utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New\git\Trip-Advisor\Trip-Advisor\src\test\java\com\cognizant\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Location Name</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Wi-Fi</t>
-  </si>
-  <si>
-    <t>Amount(per night)</t>
   </si>
   <si>
     <t>Pet friendly</t>
@@ -106,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +120,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -148,10 +152,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,11 +451,10 @@
     <col min="4" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,11 +476,8 @@
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -493,16 +494,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -524,11 +522,8 @@
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -545,13 +540,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1">
-        <v>750</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -565,40 +557,42 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_Data.xlsx
+++ b/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TripAdvisor_Data" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -531,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
@@ -556,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
